--- a/カラム分類_英語.xlsx
+++ b/カラム分類_英語.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\永井　健介\Git_local\My_Trade_Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7490AF-F654-4A48-8167-5C60EB060D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A7BB0B-771D-422B-8DB2-C05C12E7CC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="58">
   <si>
     <t>買い</t>
     <rPh sb="0" eb="1">
@@ -255,13 +255,39 @@
   </si>
   <si>
     <t>Sell_Stop_ExecPrice</t>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆</t>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>■</t>
+  </si>
+  <si>
+    <t>＋</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +301,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -321,7 +353,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1105,22 +1143,22 @@
       <c r="L5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S5" s="3" t="s">
@@ -1159,24 +1197,106 @@
       <c r="AD5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AI5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="B7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/カラム分類_英語.xlsx
+++ b/カラム分類_英語.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\永井　健介\Git_local\My_Trade_Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A7BB0B-771D-422B-8DB2-C05C12E7CC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1135B4-176E-4184-862F-D461AD3132B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
   <si>
     <t>買い</t>
     <rPh sb="0" eb="1">
@@ -123,9 +123,6 @@
     <t>Buy_New_ExecPrice</t>
   </si>
   <si>
-    <t>Buy_Close_OrderID</t>
-  </si>
-  <si>
     <t>Buy_Stop_OrderID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -156,26 +153,6 @@
   </si>
   <si>
     <t>Buy_New_ExecID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Buy_Close_OrderTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Buy_Close_OrderPrice</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Buy_Close_ExecID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Buy_Close_ExecTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Buy_Close_ExecPrice</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -221,24 +198,6 @@
     <t>Sell_New_ExecID</t>
   </si>
   <si>
-    <t>Sell_Close_OrderID</t>
-  </si>
-  <si>
-    <t>Sell_Close_OrderTime</t>
-  </si>
-  <si>
-    <t>Sell_Close_OrderPrice</t>
-  </si>
-  <si>
-    <t>Sell_Close_ExecID</t>
-  </si>
-  <si>
-    <t>Sell_Close_ExecTime</t>
-  </si>
-  <si>
-    <t>Sell_Close_ExecPrice</t>
-  </si>
-  <si>
     <t>Sell_Stop_OrderID</t>
   </si>
   <si>
@@ -257,30 +216,52 @@
     <t>Sell_Stop_ExecPrice</t>
   </si>
   <si>
-    <t>red</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◆</t>
-  </si>
-  <si>
-    <t>●</t>
-  </si>
-  <si>
-    <t>blue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>▲</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>■</t>
-  </si>
-  <si>
-    <t>＋</t>
+    <t>Buy_Settle_OrderID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buy_Settle_OrderTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buy_Settle_OrderPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buy_Settle_ExecID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buy_Settle_ExecTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buy_Settle_ExecPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sell_Settle_OrderID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sell_Settle_OrderTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sell_Settle_OrderPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sell_Settle_ExecID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sell_Settle_ExecTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sell_Settle_ExecPrice</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -359,7 +340,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +626,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1004,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -1022,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -1108,16 +1089,16 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -1126,171 +1107,121 @@
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="P5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="R5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="3" t="s">
+      <c r="AH5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="AI5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:36">
-      <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>55</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AF6" s="4"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="B7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AI7" s="6"/>
     </row>
     <row r="13" spans="1:36">
       <c r="F13" s="5"/>
